--- a/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
+++ b/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_samla\OneDrive - Concordia University - Canada\CASB-PhD\Gitbubble\fungalmicrofluidics\Experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_samla\OneDrive - Concordia University - Canada\CASB-PhD\Gitbubble\fungalmicrofluidics_basement\fungalmicrofluidics\Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="25">
   <si>
     <t>VRMS</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>19.2 pixels = 100um</t>
+  </si>
+  <si>
+    <t>Volume (10-3 nL)</t>
   </si>
 </sst>
 </file>
@@ -652,6 +655,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,7 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1323,30 +1326,30 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="J14" s="8" t="s">
+      <c r="D14" s="11"/>
+      <c r="J14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="S14" s="8" t="s">
+      <c r="M14" s="9"/>
+      <c r="S14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8" t="s">
+      <c r="T14" s="9"/>
+      <c r="U14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="8"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
@@ -1507,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38:W52"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2185,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>17</v>
@@ -2220,7 +2223,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12">
@@ -2988,7 +2991,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="15.75">
-      <c r="L30" s="11">
+      <c r="L30" s="8">
         <v>1</v>
       </c>
       <c r="M30">

--- a/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
+++ b/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_samla\OneDrive - Concordia University - Canada\CASB-PhD\Gitbubble\fungalmicrofluidics_basement\fungalmicrofluidics\Experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KENZA Folder\PYTHON\fungalmicrofluidics\fungalmicrofluidics\Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="675" yWindow="465" windowWidth="21585" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="675" yWindow="465" windowWidth="21585" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_autosort" sheetId="1" r:id="rId1"/>
     <sheet name="Fig_efficiency" sheetId="3" r:id="rId2"/>
-    <sheet name="Fig_DropV" sheetId="2" r:id="rId3"/>
+    <sheet name="Fig_DropV_wElec" sheetId="2" r:id="rId3"/>
+    <sheet name="Fig_DropV_woElec" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="29">
   <si>
     <t>VRMS</t>
   </si>
@@ -108,11 +109,23 @@
   <si>
     <t>Volume (10-3 nL)</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -1494,14 +1507,3023 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>95</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>150</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>150</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>150</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>150</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>150</v>
+      </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>150</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>150</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="B51">
+        <v>80</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>85</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>150</v>
+      </c>
+      <c r="B53">
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>95</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>150</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>250</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>250</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>250</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>250</v>
+      </c>
+      <c r="B60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>250</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>250</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>250</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>250</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>250</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>250</v>
+      </c>
+      <c r="B66">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>250</v>
+      </c>
+      <c r="B67">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>250</v>
+      </c>
+      <c r="B68">
+        <v>36</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>250</v>
+      </c>
+      <c r="B69">
+        <v>38</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>250</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>250</v>
+      </c>
+      <c r="B71">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>250</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>250</v>
+      </c>
+      <c r="B73">
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>250</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>250</v>
+      </c>
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>250</v>
+      </c>
+      <c r="B76">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>250</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>250</v>
+      </c>
+      <c r="B78">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>250</v>
+      </c>
+      <c r="B79">
+        <v>85</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>250</v>
+      </c>
+      <c r="B81">
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>250</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>350</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>350</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>350</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>350</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>350</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>350</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>350</v>
+      </c>
+      <c r="B89">
+        <v>26</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>350</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>350</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>350</v>
+      </c>
+      <c r="B92">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>350</v>
+      </c>
+      <c r="B93">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>350</v>
+      </c>
+      <c r="B94">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>350</v>
+      </c>
+      <c r="B95">
+        <v>36</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>350</v>
+      </c>
+      <c r="B96">
+        <v>38</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>350</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>350</v>
+      </c>
+      <c r="B98">
+        <v>45</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>350</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>350</v>
+      </c>
+      <c r="B100">
+        <v>55</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>350</v>
+      </c>
+      <c r="B101">
+        <v>60</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>350</v>
+      </c>
+      <c r="B102">
+        <v>65</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>350</v>
+      </c>
+      <c r="B103">
+        <v>70</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>350</v>
+      </c>
+      <c r="B104">
+        <v>75</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>350</v>
+      </c>
+      <c r="B105">
+        <v>80</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>350</v>
+      </c>
+      <c r="B106">
+        <v>85</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>350</v>
+      </c>
+      <c r="B107">
+        <v>90</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>350</v>
+      </c>
+      <c r="B108">
+        <v>95</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>350</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>450</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>450</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>450</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>450</v>
+      </c>
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>450</v>
+      </c>
+      <c r="B114">
+        <v>24</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>450</v>
+      </c>
+      <c r="B115">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>450</v>
+      </c>
+      <c r="B116">
+        <v>26</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>450</v>
+      </c>
+      <c r="B117">
+        <v>28</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>450</v>
+      </c>
+      <c r="B118">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>450</v>
+      </c>
+      <c r="B119">
+        <v>32</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>450</v>
+      </c>
+      <c r="B120">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>450</v>
+      </c>
+      <c r="B121">
+        <v>35</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>450</v>
+      </c>
+      <c r="B122">
+        <v>36</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>450</v>
+      </c>
+      <c r="B123">
+        <v>38</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>450</v>
+      </c>
+      <c r="B124">
+        <v>40</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>450</v>
+      </c>
+      <c r="B125">
+        <v>45</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>450</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>450</v>
+      </c>
+      <c r="B127">
+        <v>55</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>450</v>
+      </c>
+      <c r="B128">
+        <v>60</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>450</v>
+      </c>
+      <c r="B129">
+        <v>65</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>450</v>
+      </c>
+      <c r="B130">
+        <v>70</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>450</v>
+      </c>
+      <c r="B131">
+        <v>75</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>450</v>
+      </c>
+      <c r="B132">
+        <v>80</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>450</v>
+      </c>
+      <c r="B133">
+        <v>85</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>450</v>
+      </c>
+      <c r="B134">
+        <v>90</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>450</v>
+      </c>
+      <c r="B135">
+        <v>95</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>450</v>
+      </c>
+      <c r="B136">
+        <v>100</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>550</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>550</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>550</v>
+      </c>
+      <c r="B139">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>550</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>550</v>
+      </c>
+      <c r="B141">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>550</v>
+      </c>
+      <c r="B142">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>550</v>
+      </c>
+      <c r="B143">
+        <v>26</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>550</v>
+      </c>
+      <c r="B144">
+        <v>28</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>550</v>
+      </c>
+      <c r="B145">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>550</v>
+      </c>
+      <c r="B146">
+        <v>32</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>550</v>
+      </c>
+      <c r="B147">
+        <v>34</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>550</v>
+      </c>
+      <c r="B148">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>550</v>
+      </c>
+      <c r="B149">
+        <v>36</v>
+      </c>
+      <c r="E149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>550</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>550</v>
+      </c>
+      <c r="B151">
+        <v>40</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>550</v>
+      </c>
+      <c r="B152">
+        <v>45</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>550</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>550</v>
+      </c>
+      <c r="B154">
+        <v>55</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>550</v>
+      </c>
+      <c r="B155">
+        <v>60</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>550</v>
+      </c>
+      <c r="B156">
+        <v>65</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>550</v>
+      </c>
+      <c r="B157">
+        <v>70</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>550</v>
+      </c>
+      <c r="B158">
+        <v>75</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>550</v>
+      </c>
+      <c r="B159">
+        <v>80</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>550</v>
+      </c>
+      <c r="B160">
+        <v>85</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>550</v>
+      </c>
+      <c r="B161">
+        <v>90</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>550</v>
+      </c>
+      <c r="B162">
+        <v>95</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>550</v>
+      </c>
+      <c r="B163">
+        <v>100</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>650</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>650</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>650</v>
+      </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>650</v>
+      </c>
+      <c r="B167">
+        <v>20</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>650</v>
+      </c>
+      <c r="B168">
+        <v>24</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>650</v>
+      </c>
+      <c r="B169">
+        <v>25</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>650</v>
+      </c>
+      <c r="B170">
+        <v>26</v>
+      </c>
+      <c r="E170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>650</v>
+      </c>
+      <c r="B171">
+        <v>28</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>650</v>
+      </c>
+      <c r="B172">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>650</v>
+      </c>
+      <c r="B173">
+        <v>32</v>
+      </c>
+      <c r="E173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>650</v>
+      </c>
+      <c r="B174">
+        <v>34</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>650</v>
+      </c>
+      <c r="B175">
+        <v>35</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>650</v>
+      </c>
+      <c r="B176">
+        <v>36</v>
+      </c>
+      <c r="E176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>650</v>
+      </c>
+      <c r="B177">
+        <v>38</v>
+      </c>
+      <c r="E177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>650</v>
+      </c>
+      <c r="B178">
+        <v>40</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>650</v>
+      </c>
+      <c r="B179">
+        <v>45</v>
+      </c>
+      <c r="C179">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>650</v>
+      </c>
+      <c r="B180">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>650</v>
+      </c>
+      <c r="B181">
+        <v>55</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>650</v>
+      </c>
+      <c r="B182">
+        <v>60</v>
+      </c>
+      <c r="C182">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>650</v>
+      </c>
+      <c r="B183">
+        <v>65</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>650</v>
+      </c>
+      <c r="B184">
+        <v>70</v>
+      </c>
+      <c r="C184">
+        <v>9</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>650</v>
+      </c>
+      <c r="B185">
+        <v>75</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>650</v>
+      </c>
+      <c r="B186">
+        <v>80</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>650</v>
+      </c>
+      <c r="B187">
+        <v>85</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>650</v>
+      </c>
+      <c r="B188">
+        <v>90</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>650</v>
+      </c>
+      <c r="B189">
+        <v>95</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>650</v>
+      </c>
+      <c r="B190">
+        <v>100</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1510,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2183,7 +5205,9 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2240,7 +5264,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="U12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3668,4 +6694,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
+        <v>450</v>
+      </c>
+      <c r="B2" s="6">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>350</v>
+      </c>
+      <c r="J2" s="6">
+        <v>60</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
+        <v>450</v>
+      </c>
+      <c r="B3" s="6">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>350</v>
+      </c>
+      <c r="J3" s="6">
+        <v>60</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
+        <v>450</v>
+      </c>
+      <c r="B4" s="6">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>350</v>
+      </c>
+      <c r="J4" s="6">
+        <v>60</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
+        <v>450</v>
+      </c>
+      <c r="B5" s="6">
+        <v>80</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>350</v>
+      </c>
+      <c r="J5" s="6">
+        <v>60</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
+        <v>450</v>
+      </c>
+      <c r="B6" s="6">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>350</v>
+      </c>
+      <c r="J6" s="6">
+        <v>60</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
+        <v>450</v>
+      </c>
+      <c r="B7" s="6">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>350</v>
+      </c>
+      <c r="J7" s="6">
+        <v>60</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
+        <v>450</v>
+      </c>
+      <c r="B8" s="6">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>350</v>
+      </c>
+      <c r="J8" s="6">
+        <v>60</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
+        <v>450</v>
+      </c>
+      <c r="B9" s="6">
+        <v>80</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>350</v>
+      </c>
+      <c r="J9" s="6">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
+++ b/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KENZA Folder\PYTHON\fungalmicrofluidics\fungalmicrofluidics\Experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/k_samla_live_concordia_ca/Documents/CASB-PhD/Gitbubble/fungalmicrofluidics_basement/fungalmicrofluidics/Experimental/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{3494F199-24FB-864A-9EA3-24F2B4B836CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FF42AAD-BC37-634D-B300-52F19E550AFA}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="465" windowWidth="21585" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="2200" yWindow="7740" windowWidth="21580" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_autosort" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Fig_DropV_wElec" sheetId="2" r:id="rId3"/>
     <sheet name="Fig_DropV_woElec" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="31">
   <si>
     <t>VRMS</t>
   </si>
@@ -121,12 +122,18 @@
   <si>
     <t>switch</t>
   </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -678,6 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,16 +1011,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>650</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>650</v>
       </c>
@@ -1171,7 +1179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>650</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>650</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>650</v>
       </c>
@@ -1249,7 +1257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>650</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>650</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>650</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1372,7 @@
       </c>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1405,13 +1413,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E16">
         <f>SUM(A16:D16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>0.133303</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>65</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>6.6650999999999905E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>70</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>0.166627999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>75</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>80</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>85</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>9.9976999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>90</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>95</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>9.9977000000000094E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -1506,16 +1514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1603,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1631,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50</v>
       </c>
@@ -1748,7 +1756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1782,7 +1790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1901,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>150</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>150</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2003,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>150</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>150</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>150</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>150</v>
       </c>
@@ -2071,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>150</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>150</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>150</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>150</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>150</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>150</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>150</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>150</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>150</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>150</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>150</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>150</v>
       </c>
@@ -2284,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>150</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>150</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>150</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>150</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>150</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>150</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>150</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>150</v>
       </c>
@@ -2420,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>250</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>250</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>250</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>250</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>250</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>250</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>250</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>250</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>250</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>250</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>250</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>250</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>250</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>250</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>250</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>250</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>250</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>250</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>250</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>250</v>
       </c>
@@ -2718,7 +2726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>250</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>250</v>
       </c>
@@ -2752,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>250</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>250</v>
       </c>
@@ -2786,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>250</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>250</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>250</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>350</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>350</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>350</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>350</v>
       </c>
@@ -2905,7 +2913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>350</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>350</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>350</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>350</v>
       </c>
@@ -2955,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>350</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>350</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>350</v>
       </c>
@@ -2994,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>350</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>350</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>350</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>350</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>350</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>350</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>350</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>350</v>
       </c>
@@ -3118,7 +3126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>350</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>350</v>
       </c>
@@ -3152,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>350</v>
       </c>
@@ -3169,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>350</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>350</v>
       </c>
@@ -3203,7 +3211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>350</v>
       </c>
@@ -3220,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>350</v>
       </c>
@@ -3237,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>350</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>450</v>
       </c>
@@ -3271,7 +3279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>450</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>450</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>450</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>450</v>
       </c>
@@ -3333,7 +3341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>450</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>450</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>450</v>
       </c>
@@ -3372,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>450</v>
       </c>
@@ -3389,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>450</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>450</v>
       </c>
@@ -3411,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>450</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>450</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>450</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>450</v>
       </c>
@@ -3467,7 +3475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>450</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>450</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>450</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>450</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>450</v>
       </c>
@@ -3552,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>450</v>
       </c>
@@ -3569,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>450</v>
       </c>
@@ -3586,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>450</v>
       </c>
@@ -3603,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>450</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>450</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>450</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>450</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>550</v>
       </c>
@@ -3688,7 +3696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>550</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>550</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>550</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>550</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>550</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>550</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>550</v>
       </c>
@@ -3789,7 +3797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>550</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>550</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>550</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>550</v>
       </c>
@@ -3851,7 +3859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>550</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>550</v>
       </c>
@@ -3873,7 +3881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>550</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>550</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>550</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>550</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>550</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>550</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>550</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>550</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>550</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>550</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>550</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>550</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>550</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>650</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>650</v>
       </c>
@@ -4131,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>650</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>650</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>650</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>650</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>650</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>650</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>650</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>650</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>650</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>650</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>650</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>650</v>
       </c>
@@ -4299,7 +4307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>650</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>650</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>650</v>
       </c>
@@ -4353,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>650</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>650</v>
       </c>
@@ -4387,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>650</v>
       </c>
@@ -4404,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>650</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>650</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>650</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>650</v>
       </c>
@@ -4472,7 +4480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>650</v>
       </c>
@@ -4489,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>650</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>650</v>
       </c>
@@ -4529,16 +4537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView topLeftCell="K4" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75">
+    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4697,7 +4705,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75">
+    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="4">
         <v>650</v>
@@ -4763,7 +4771,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75">
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="4">
         <v>650</v>
@@ -4829,7 +4837,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75">
+    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="4">
         <v>650</v>
@@ -4895,7 +4903,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75">
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="4">
         <v>650</v>
@@ -4961,7 +4969,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75">
+    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="4">
         <v>650</v>
@@ -5027,7 +5035,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75">
+    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="4">
         <v>650</v>
@@ -5093,7 +5101,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75">
+    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="4">
         <v>650</v>
@@ -5159,7 +5167,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5193,7 +5201,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5235,7 +5243,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5288,7 +5296,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5340,7 +5348,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5391,7 +5399,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5442,7 +5450,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5493,7 +5501,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75">
+    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5544,7 +5552,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75">
+    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5595,7 +5603,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75">
+    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5646,7 +5654,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75">
+    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5697,7 +5705,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75">
+    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5748,7 +5756,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75">
+    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5799,7 +5807,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75">
+    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5848,7 +5856,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="15.75">
+    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L24" s="5">
         <v>13</v>
       </c>
@@ -5876,7 +5884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75">
+    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L25">
         <v>14</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75">
+    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L26">
         <v>15</v>
       </c>
@@ -5932,7 +5940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15.75">
+    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L27">
         <v>16</v>
       </c>
@@ -5960,7 +5968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75">
+    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L28">
         <v>17</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75">
+    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L29">
         <v>18</v>
       </c>
@@ -6016,7 +6024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75">
+    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L30" s="8">
         <v>1</v>
       </c>
@@ -6044,7 +6052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15.75">
+    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L31">
         <v>2</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15.75">
+    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="L32">
         <v>3</v>
       </c>
@@ -6100,7 +6108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="12:23" ht="15.75">
+    <row r="33" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L33">
         <v>4</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="12:23" ht="15.75">
+    <row r="34" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L34">
         <v>5</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="12:23" ht="15.75">
+    <row r="35" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L35">
         <v>6</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="12:23" ht="15.75">
+    <row r="36" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L36">
         <v>7</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="12:23" ht="15.75">
+    <row r="37" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L37">
         <v>8</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="12:23" ht="15.75">
+    <row r="38" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L38">
         <v>9</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="12:23" ht="15.75">
+    <row r="39" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L39">
         <v>10</v>
       </c>
@@ -6296,7 +6304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="12:23" ht="15.75">
+    <row r="40" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L40">
         <v>11</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="12:23" ht="15.75">
+    <row r="41" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L41">
         <v>12</v>
       </c>
@@ -6352,7 +6360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="12:23" ht="15.75">
+    <row r="42" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L42">
         <v>13</v>
       </c>
@@ -6380,7 +6388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="12:23" ht="15.75">
+    <row r="43" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L43">
         <v>14</v>
       </c>
@@ -6408,7 +6416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="12:23" ht="15.75">
+    <row r="44" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L44">
         <v>15</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="12:23" ht="15.75">
+    <row r="45" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L45">
         <v>16</v>
       </c>
@@ -6464,7 +6472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="12:23" ht="15.75">
+    <row r="46" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L46">
         <v>17</v>
       </c>
@@ -6492,7 +6500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="12:23" ht="15.75">
+    <row r="47" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L47">
         <v>18</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="12:23" ht="15.75">
+    <row r="48" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L48">
         <v>19</v>
       </c>
@@ -6548,7 +6556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="12:23" ht="15.75">
+    <row r="49" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L49">
         <v>20</v>
       </c>
@@ -6576,7 +6584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="12:23" ht="15.75">
+    <row r="50" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L50">
         <v>21</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="12:23" ht="15.75">
+    <row r="51" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L51">
         <v>22</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="12:23" ht="15.75">
+    <row r="52" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L52">
         <v>23</v>
       </c>
@@ -6660,7 +6668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="12:23" ht="15.75">
+    <row r="53" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L53">
         <v>24</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="12:23" ht="15.75">
+    <row r="54" spans="12:23" ht="16" x14ac:dyDescent="0.2">
       <c r="L54">
         <v>25</v>
       </c>
@@ -6697,19 +6705,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -6719,9 +6725,7 @@
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -6732,10 +6736,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6">
-        <v>450</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
       <c r="B2" s="6">
         <v>80</v>
       </c>
@@ -6745,9 +6747,7 @@
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
-        <v>350</v>
-      </c>
+      <c r="I2" s="6"/>
       <c r="J2" s="6">
         <v>60</v>
       </c>
@@ -6758,62 +6758,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6">
-        <v>450</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>80</v>
       </c>
       <c r="C3" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6">
         <v>60</v>
       </c>
       <c r="K3" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6">
-        <v>450</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="6">
         <v>80</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.5</v>
       </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>350</v>
-      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6">
         <v>60</v>
       </c>
       <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>0.5</v>
       </c>
-      <c r="L4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6">
-        <v>450</v>
-      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>80</v>
       </c>
@@ -6823,9 +6813,7 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
-        <v>350</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6">
         <v>60</v>
       </c>
@@ -6836,10 +6824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6">
-        <v>450</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>80</v>
       </c>
@@ -6849,9 +6835,7 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
-        <v>350</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6">
         <v>60</v>
       </c>
@@ -6862,10 +6846,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6">
-        <v>450</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>80</v>
       </c>
@@ -6875,9 +6857,7 @@
       <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="6">
-        <v>350</v>
-      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6">
         <v>60</v>
       </c>
@@ -6888,10 +6868,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6">
-        <v>450</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>80</v>
       </c>
@@ -6901,9 +6879,7 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
-        <v>350</v>
-      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6">
         <v>60</v>
       </c>
@@ -6914,10 +6890,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6">
-        <v>450</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>80</v>
       </c>
@@ -6927,9 +6901,7 @@
       <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
-        <v>350</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6">
         <v>60</v>
       </c>
@@ -6939,8 +6911,34 @@
       <c r="L9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75">
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>258</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -6958,6 +6956,61 @@
       </c>
       <c r="K11" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M9:M10)</f>
+        <v>277</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="7">
+        <v>345</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <f>3/277</f>
+        <v>1.0830324909747292E-2</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>2/345</f>
+        <v>5.7971014492753624E-3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>5/(345+277)</f>
+        <v>8.0385852090032149E-3</v>
+      </c>
+      <c r="L17">
+        <f>277+345</f>
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
+++ b/fungalmicrofluidics/Experimental/Fig_sorter.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/k_samla_live_concordia_ca/Documents/CASB-PhD/Gitbubble/fungalmicrofluidics_basement/fungalmicrofluidics/Experimental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KENZA Folder\PYTHON\fungalmicrofluidics\fungalmicrofluidics\Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="114_{3494F199-24FB-864A-9EA3-24F2B4B836CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FF42AAD-BC37-634D-B300-52F19E550AFA}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="7740" windowWidth="21580" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="7740" windowWidth="21585" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_autosort" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Fig_DropV_wElec" sheetId="2" r:id="rId3"/>
     <sheet name="Fig_DropV_woElec" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
   <si>
     <t>VRMS</t>
   </si>
@@ -46,9 +45,6 @@
   </si>
   <si>
     <t>ErrorType</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>Reso</t>
@@ -128,12 +124,21 @@
   <si>
     <t>neg</t>
   </si>
+  <si>
+    <t>350Vpp, 60nL/s</t>
+  </si>
+  <si>
+    <t>Fluo 5uM</t>
+  </si>
+  <si>
+    <t>H2O blue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +681,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,7 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,423 +1016,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="E4">
+        <f>SUM(A4:D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="S14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="S15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="T15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>650</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>550</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>450</v>
-      </c>
-      <c r="T2">
-        <v>80</v>
-      </c>
-      <c r="U2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
-        <v>350</v>
-      </c>
-      <c r="AC2">
-        <v>60</v>
-      </c>
-      <c r="AD2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>650</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>550</v>
-      </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="S3">
-        <v>450</v>
-      </c>
-      <c r="T3">
-        <v>80</v>
-      </c>
-      <c r="AB3">
-        <v>350</v>
-      </c>
-      <c r="AC3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>650</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>550</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="S4">
-        <v>450</v>
-      </c>
-      <c r="T4">
-        <v>80</v>
-      </c>
-      <c r="AB4">
-        <v>350</v>
-      </c>
-      <c r="AC4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>650</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>550</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="S5">
-        <v>450</v>
-      </c>
-      <c r="T5">
-        <v>80</v>
-      </c>
-      <c r="AB5">
-        <v>350</v>
-      </c>
-      <c r="AC5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>650</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <v>550</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="S6">
-        <v>450</v>
-      </c>
-      <c r="T6">
-        <v>80</v>
-      </c>
-      <c r="AB6">
-        <v>350</v>
-      </c>
-      <c r="AC6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>650</v>
-      </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="J7">
-        <v>550</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="S7">
-        <v>450</v>
-      </c>
-      <c r="T7">
-        <v>80</v>
-      </c>
-      <c r="AB7">
-        <v>350</v>
-      </c>
-      <c r="AC7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>650</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="J8">
-        <v>550</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="S8">
-        <v>450</v>
-      </c>
-      <c r="T8">
-        <v>80</v>
-      </c>
-      <c r="AB8">
-        <v>350</v>
-      </c>
-      <c r="AC8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>650</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="J9">
-        <v>550</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="S9">
-        <v>450</v>
-      </c>
-      <c r="T9">
-        <v>80</v>
-      </c>
-      <c r="AB9">
-        <v>350</v>
-      </c>
-      <c r="AC9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="J14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="S14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="9"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="V15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <f>SUM(A16:D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -1435,7 +1114,7 @@
         <v>0.133303</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>65</v>
       </c>
@@ -1443,7 +1122,7 @@
         <v>6.6650999999999905E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>70</v>
       </c>
@@ -1451,7 +1130,7 @@
         <v>0.166627999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>75</v>
       </c>
@@ -1459,7 +1138,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>80</v>
       </c>
@@ -1467,7 +1146,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>85</v>
       </c>
@@ -1475,7 +1154,7 @@
         <v>9.9976999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>90</v>
       </c>
@@ -1483,7 +1162,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>95</v>
       </c>
@@ -1491,7 +1170,7 @@
         <v>9.9977000000000094E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -1502,8 +1181,8 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="U14:V14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="S14:T14"/>
@@ -1514,16 +1193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1560,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1577,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1594,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1611,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1622,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1639,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1650,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1661,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1678,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1689,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1700,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>50</v>
       </c>
@@ -1717,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1728,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>50</v>
       </c>
@@ -1739,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>50</v>
       </c>
@@ -1756,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1773,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1790,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1807,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1824,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1841,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1858,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>50</v>
       </c>
@@ -1875,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1892,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1909,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1926,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>50</v>
       </c>
@@ -1943,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>50</v>
       </c>
@@ -1960,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>150</v>
       </c>
@@ -1977,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>150</v>
       </c>
@@ -1994,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2011,7 +1690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>150</v>
       </c>
@@ -2028,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>150</v>
       </c>
@@ -2045,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>150</v>
       </c>
@@ -2062,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>150</v>
       </c>
@@ -2079,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>150</v>
       </c>
@@ -2096,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>150</v>
       </c>
@@ -2113,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>150</v>
       </c>
@@ -2133,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>150</v>
       </c>
@@ -2153,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>150</v>
       </c>
@@ -2173,7 +1852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>150</v>
       </c>
@@ -2190,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>150</v>
       </c>
@@ -2207,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>150</v>
       </c>
@@ -2224,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>150</v>
       </c>
@@ -2241,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>150</v>
       </c>
@@ -2258,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>150</v>
       </c>
@@ -2275,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>150</v>
       </c>
@@ -2292,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>150</v>
       </c>
@@ -2309,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>150</v>
       </c>
@@ -2326,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>150</v>
       </c>
@@ -2343,7 +2022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>150</v>
       </c>
@@ -2360,7 +2039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>150</v>
       </c>
@@ -2377,7 +2056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>150</v>
       </c>
@@ -2394,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>150</v>
       </c>
@@ -2411,7 +2090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>150</v>
       </c>
@@ -2428,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>250</v>
       </c>
@@ -2445,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>250</v>
       </c>
@@ -2462,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>250</v>
       </c>
@@ -2479,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>250</v>
       </c>
@@ -2496,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>250</v>
       </c>
@@ -2507,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>250</v>
       </c>
@@ -2524,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>250</v>
       </c>
@@ -2535,7 +2214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>250</v>
       </c>
@@ -2546,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>250</v>
       </c>
@@ -2563,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>250</v>
       </c>
@@ -2574,7 +2253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>250</v>
       </c>
@@ -2585,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>250</v>
       </c>
@@ -2602,7 +2281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>250</v>
       </c>
@@ -2613,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>250</v>
       </c>
@@ -2624,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>250</v>
       </c>
@@ -2641,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>250</v>
       </c>
@@ -2658,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>250</v>
       </c>
@@ -2675,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>250</v>
       </c>
@@ -2692,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>250</v>
       </c>
@@ -2709,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>250</v>
       </c>
@@ -2726,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>250</v>
       </c>
@@ -2743,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>250</v>
       </c>
@@ -2760,7 +2439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>250</v>
       </c>
@@ -2777,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>250</v>
       </c>
@@ -2794,7 +2473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>250</v>
       </c>
@@ -2811,7 +2490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>250</v>
       </c>
@@ -2828,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>250</v>
       </c>
@@ -2845,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>350</v>
       </c>
@@ -2862,7 +2541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>350</v>
       </c>
@@ -2879,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>350</v>
       </c>
@@ -2896,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>350</v>
       </c>
@@ -2913,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>350</v>
       </c>
@@ -2924,7 +2603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>350</v>
       </c>
@@ -2941,7 +2620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>350</v>
       </c>
@@ -2952,7 +2631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>350</v>
       </c>
@@ -2963,7 +2642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>350</v>
       </c>
@@ -2980,7 +2659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>350</v>
       </c>
@@ -2991,7 +2670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>350</v>
       </c>
@@ -3002,7 +2681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>350</v>
       </c>
@@ -3019,7 +2698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>350</v>
       </c>
@@ -3030,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>350</v>
       </c>
@@ -3041,7 +2720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>350</v>
       </c>
@@ -3058,7 +2737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>350</v>
       </c>
@@ -3075,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>350</v>
       </c>
@@ -3092,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>350</v>
       </c>
@@ -3109,7 +2788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>350</v>
       </c>
@@ -3126,7 +2805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>350</v>
       </c>
@@ -3143,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>350</v>
       </c>
@@ -3160,7 +2839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>350</v>
       </c>
@@ -3177,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>350</v>
       </c>
@@ -3194,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>350</v>
       </c>
@@ -3211,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>350</v>
       </c>
@@ -3228,7 +2907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>350</v>
       </c>
@@ -3245,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>350</v>
       </c>
@@ -3262,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>450</v>
       </c>
@@ -3279,7 +2958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>450</v>
       </c>
@@ -3296,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>450</v>
       </c>
@@ -3313,7 +2992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>450</v>
       </c>
@@ -3330,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>450</v>
       </c>
@@ -3341,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>450</v>
       </c>
@@ -3358,7 +3037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>450</v>
       </c>
@@ -3369,7 +3048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>450</v>
       </c>
@@ -3380,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>450</v>
       </c>
@@ -3397,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>450</v>
       </c>
@@ -3408,7 +3087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>450</v>
       </c>
@@ -3419,7 +3098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>450</v>
       </c>
@@ -3436,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>450</v>
       </c>
@@ -3447,7 +3126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>450</v>
       </c>
@@ -3458,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>450</v>
       </c>
@@ -3475,7 +3154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>450</v>
       </c>
@@ -3492,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>450</v>
       </c>
@@ -3509,7 +3188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>450</v>
       </c>
@@ -3526,7 +3205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>450</v>
       </c>
@@ -3543,7 +3222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>450</v>
       </c>
@@ -3560,7 +3239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>450</v>
       </c>
@@ -3577,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>450</v>
       </c>
@@ -3594,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>450</v>
       </c>
@@ -3611,7 +3290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>450</v>
       </c>
@@ -3628,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>450</v>
       </c>
@@ -3645,7 +3324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>450</v>
       </c>
@@ -3662,7 +3341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>450</v>
       </c>
@@ -3679,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>550</v>
       </c>
@@ -3696,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>550</v>
       </c>
@@ -3713,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>550</v>
       </c>
@@ -3730,7 +3409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>550</v>
       </c>
@@ -3747,7 +3426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>550</v>
       </c>
@@ -3758,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>550</v>
       </c>
@@ -3775,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>550</v>
       </c>
@@ -3786,7 +3465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>550</v>
       </c>
@@ -3797,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>550</v>
       </c>
@@ -3814,10 +3493,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>550</v>
       </c>
@@ -3828,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>550</v>
       </c>
@@ -3839,7 +3518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>550</v>
       </c>
@@ -3856,10 +3535,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>550</v>
       </c>
@@ -3870,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>550</v>
       </c>
@@ -3881,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>550</v>
       </c>
@@ -3898,10 +3577,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>550</v>
       </c>
@@ -3918,7 +3597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>550</v>
       </c>
@@ -3935,7 +3614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>550</v>
       </c>
@@ -3952,7 +3631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>550</v>
       </c>
@@ -3969,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>550</v>
       </c>
@@ -3986,7 +3665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>550</v>
       </c>
@@ -4003,7 +3682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>550</v>
       </c>
@@ -4020,7 +3699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>550</v>
       </c>
@@ -4037,7 +3716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>550</v>
       </c>
@@ -4054,7 +3733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>550</v>
       </c>
@@ -4071,7 +3750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>550</v>
       </c>
@@ -4088,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>550</v>
       </c>
@@ -4105,7 +3784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>650</v>
       </c>
@@ -4122,7 +3801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>650</v>
       </c>
@@ -4139,7 +3818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>650</v>
       </c>
@@ -4156,7 +3835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>650</v>
       </c>
@@ -4173,7 +3852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>650</v>
       </c>
@@ -4184,7 +3863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>650</v>
       </c>
@@ -4201,7 +3880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>650</v>
       </c>
@@ -4212,7 +3891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>650</v>
       </c>
@@ -4223,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>650</v>
       </c>
@@ -4240,10 +3919,10 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>650</v>
       </c>
@@ -4254,7 +3933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>650</v>
       </c>
@@ -4265,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>650</v>
       </c>
@@ -4282,10 +3961,10 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>650</v>
       </c>
@@ -4296,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>650</v>
       </c>
@@ -4307,7 +3986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>650</v>
       </c>
@@ -4324,10 +4003,10 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>650</v>
       </c>
@@ -4344,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>650</v>
       </c>
@@ -4361,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>650</v>
       </c>
@@ -4378,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>650</v>
       </c>
@@ -4395,7 +4074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>650</v>
       </c>
@@ -4412,7 +4091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>650</v>
       </c>
@@ -4429,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>650</v>
       </c>
@@ -4446,7 +4125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>650</v>
       </c>
@@ -4463,7 +4142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>650</v>
       </c>
@@ -4480,7 +4159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>650</v>
       </c>
@@ -4497,7 +4176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>650</v>
       </c>
@@ -4514,7 +4193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>650</v>
       </c>
@@ -4537,109 +4216,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:32" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>650</v>
@@ -4705,7 +4384,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="4">
         <v>650</v>
@@ -4771,7 +4450,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15.75">
       <c r="A4" s="5"/>
       <c r="B4" s="4">
         <v>650</v>
@@ -4837,7 +4516,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15.75">
       <c r="A5" s="5"/>
       <c r="B5" s="4">
         <v>650</v>
@@ -4903,7 +4582,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15.75">
       <c r="A6" s="5"/>
       <c r="B6" s="4">
         <v>650</v>
@@ -4969,7 +4648,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15.75">
       <c r="A7" s="5"/>
       <c r="B7" s="4">
         <v>650</v>
@@ -5035,7 +4714,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15.75">
       <c r="A8" s="5"/>
       <c r="B8" s="4">
         <v>650</v>
@@ -5101,7 +4780,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15.75">
       <c r="A9" s="5"/>
       <c r="B9" s="4">
         <v>650</v>
@@ -5167,7 +4846,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5201,7 +4880,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5214,16 +4893,16 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -5243,7 +4922,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5266,26 +4945,26 @@
         <v>1333.00783</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="X12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -5296,7 +4975,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5319,7 +4998,7 @@
         <v>1574.1644799999999</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -5336,7 +5015,7 @@
         <v>904.54819000000009</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="5"/>
@@ -5348,7 +5027,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="15.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5370,7 +5049,7 @@
         <v>1735.5685899999999</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -5387,7 +5066,7 @@
         <v>943.87635999999998</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="5"/>
@@ -5399,7 +5078,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="15.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5421,7 +5100,7 @@
         <v>1458.3333099999998</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -5438,7 +5117,7 @@
         <v>1179.8454500000003</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="5"/>
@@ -5450,7 +5129,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="15.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5472,7 +5151,7 @@
         <v>1984.3207299999999</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -5489,7 +5168,7 @@
         <v>1219.1736199999998</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="5"/>
@@ -5501,7 +5180,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="15.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5523,7 +5202,7 @@
         <v>1230.46875</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -5540,7 +5219,7 @@
         <v>1179.8454500000003</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="5"/>
@@ -5552,7 +5231,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="15.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5574,7 +5253,7 @@
         <v>1917.8602100000001</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -5591,7 +5270,7 @@
         <v>1140.51721</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="5"/>
@@ -5603,7 +5282,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="15.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5625,7 +5304,7 @@
         <v>1623.5351300000002</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -5642,7 +5321,7 @@
         <v>1116.17121</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="5"/>
@@ -5654,7 +5333,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="15.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5676,7 +5355,7 @@
         <v>1652.0182</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -5693,7 +5372,7 @@
         <v>1116.17121</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="5"/>
@@ -5705,7 +5384,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5727,7 +5406,7 @@
         <v>1325.4123399999999</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -5744,7 +5423,7 @@
         <v>1140.51721</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="5"/>
@@ -5756,7 +5435,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5778,7 +5457,7 @@
         <v>1219.07555</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -5795,7 +5474,7 @@
         <v>2048.8109599999998</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="5"/>
@@ -5807,7 +5486,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="15.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5829,7 +5508,7 @@
         <v>1283.6371799999999</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -5844,7 +5523,7 @@
         <v>1846.5517000000002</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="5"/>
@@ -5856,7 +5535,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15.75">
       <c r="L24" s="5">
         <v>13</v>
       </c>
@@ -5868,7 +5547,7 @@
         <v>1338.70443</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24" s="5">
         <v>12</v>
@@ -5881,10 +5560,10 @@
         <v>1271.6111799999999</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15.75">
       <c r="L25">
         <v>14</v>
       </c>
@@ -5896,7 +5575,7 @@
         <v>1160.2105200000001</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T25" s="5">
         <v>13</v>
@@ -5909,10 +5588,10 @@
         <v>1382.1046399999998</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15.75">
       <c r="L26">
         <v>15</v>
       </c>
@@ -5924,7 +5603,7 @@
         <v>1167.80601</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T26" s="5">
         <v>1</v>
@@ -5937,10 +5616,10 @@
         <v>889.56601999999987</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15.75">
       <c r="L27">
         <v>16</v>
       </c>
@@ -5952,7 +5631,7 @@
         <v>1013.99739</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" s="5">
         <v>2</v>
@@ -5965,10 +5644,10 @@
         <v>820.27350999999999</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="15.75">
       <c r="L28">
         <v>17</v>
       </c>
@@ -5980,7 +5659,7 @@
         <v>831.70570000000009</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T28" s="5">
         <v>3</v>
@@ -5993,10 +5672,10 @@
         <v>764.09038999999984</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15.75">
       <c r="L29">
         <v>18</v>
       </c>
@@ -6008,7 +5687,7 @@
         <v>903.86281999999994</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T29" s="5">
         <v>4</v>
@@ -6021,10 +5700,10 @@
         <v>715.39832000000001</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="15.75">
       <c r="L30" s="8">
         <v>1</v>
       </c>
@@ -6036,7 +5715,7 @@
         <v>1055.7725500000001</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T30" s="5">
         <v>5</v>
@@ -6049,10 +5728,10 @@
         <v>749.10821999999996</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="15.75">
       <c r="L31">
         <v>2</v>
       </c>
@@ -6064,7 +5743,7 @@
         <v>1038.6827499999999</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T31" s="5">
         <v>6</v>
@@ -6077,10 +5756,10 @@
         <v>777.19977999999992</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15.75">
       <c r="L32">
         <v>3</v>
       </c>
@@ -6092,7 +5771,7 @@
         <v>1118.4353599999999</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T32" s="5">
         <v>7</v>
@@ -6105,10 +5784,10 @@
         <v>726.63492999999994</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" ht="15.75">
       <c r="L33">
         <v>4</v>
       </c>
@@ -6120,7 +5799,7 @@
         <v>1164.0082299999999</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T33" s="5">
         <v>8</v>
@@ -6133,10 +5812,10 @@
         <v>773.45421999999996</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="12:23" ht="15.75">
       <c r="L34">
         <v>5</v>
       </c>
@@ -6148,7 +5827,7 @@
         <v>1074.7613100000001</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T34" s="5">
         <v>9</v>
@@ -6161,10 +5840,10 @@
         <v>728.50771000000009</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" ht="15.75">
       <c r="L35">
         <v>6</v>
       </c>
@@ -6176,7 +5855,7 @@
         <v>943.73915999999997</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T35" s="5">
         <v>10</v>
@@ -6189,10 +5868,10 @@
         <v>1016.91436</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="12:23" ht="15.75">
       <c r="L36">
         <v>7</v>
       </c>
@@ -6204,7 +5883,7 @@
         <v>698.78472999999997</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T36" s="5">
         <v>11</v>
@@ -6217,10 +5896,10 @@
         <v>958.85852999999986</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="12:23" ht="15.75">
       <c r="L37">
         <v>8</v>
       </c>
@@ -6232,7 +5911,7 @@
         <v>901.96400000000006</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T37" s="5">
         <v>12</v>
@@ -6245,10 +5924,10 @@
         <v>986.95008999999993</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" ht="15.75">
       <c r="L38">
         <v>9</v>
       </c>
@@ -6260,7 +5939,7 @@
         <v>936.14366999999993</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T38" s="5">
         <v>1</v>
@@ -6273,10 +5952,10 @@
         <v>719.67230999999992</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" ht="15.75">
       <c r="L39">
         <v>10</v>
       </c>
@@ -6288,7 +5967,7 @@
         <v>900.06511</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T39" s="5">
         <v>2</v>
@@ -6301,10 +5980,10 @@
         <v>704.48133000000007</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" ht="15.75">
       <c r="L40">
         <v>11</v>
       </c>
@@ -6316,7 +5995,7 @@
         <v>989.3121000000001</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T40" s="5">
         <v>3</v>
@@ -6329,10 +6008,10 @@
         <v>683.59375</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="12:23" ht="15.75">
       <c r="L41">
         <v>12</v>
       </c>
@@ -6344,7 +6023,7 @@
         <v>776.63844999999992</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T41" s="5">
         <v>4</v>
@@ -6357,10 +6036,10 @@
         <v>588.65016000000003</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" ht="15.75">
       <c r="L42">
         <v>13</v>
       </c>
@@ -6372,7 +6051,7 @@
         <v>525.98741999999993</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T42" s="5">
         <v>5</v>
@@ -6385,10 +6064,10 @@
         <v>508.89754999999997</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="12:23" ht="15.75">
       <c r="L43">
         <v>14</v>
       </c>
@@ -6400,7 +6079,7 @@
         <v>750.05426999999997</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T43" s="5">
         <v>6</v>
@@ -6413,10 +6092,10 @@
         <v>565.86368999999991</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="12:23" ht="15.75">
       <c r="L44">
         <v>15</v>
       </c>
@@ -6428,7 +6107,7 @@
         <v>685.49264000000005</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T44" s="5">
         <v>7</v>
@@ -6441,10 +6120,10 @@
         <v>1069.0646400000001</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="12:23" ht="15.75">
       <c r="L45">
         <v>16</v>
       </c>
@@ -6456,7 +6135,7 @@
         <v>748.15538000000004</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T45" s="5">
         <v>1</v>
@@ -6469,10 +6148,10 @@
         <v>1074.7613100000001</v>
       </c>
       <c r="W45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="12:23" ht="15.75">
       <c r="L46">
         <v>17</v>
       </c>
@@ -6484,7 +6163,7 @@
         <v>827.90799000000004</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T46" s="5">
         <v>2</v>
@@ -6497,10 +6176,10 @@
         <v>1146.9184299999999</v>
       </c>
       <c r="W46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="12:23" ht="15.75">
       <c r="L47">
         <v>18</v>
       </c>
@@ -6512,7 +6191,7 @@
         <v>660.80727999999988</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T47" s="5">
         <v>3</v>
@@ -6525,10 +6204,10 @@
         <v>1146.9184299999999</v>
       </c>
       <c r="W47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="12:23" ht="15.75">
       <c r="L48">
         <v>19</v>
       </c>
@@ -6540,7 +6219,7 @@
         <v>696.88584000000003</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T48" s="5">
         <v>4</v>
@@ -6553,10 +6232,10 @@
         <v>1127.9296700000002</v>
       </c>
       <c r="W48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" ht="15.75">
       <c r="L49">
         <v>20</v>
       </c>
@@ -6568,7 +6247,7 @@
         <v>489.90886000000006</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T49" s="5">
         <v>5</v>
@@ -6581,10 +6260,10 @@
         <v>1198.1879000000001</v>
       </c>
       <c r="W49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" ht="15.75">
       <c r="L50">
         <v>21</v>
       </c>
@@ -6596,7 +6275,7 @@
         <v>581.05466999999999</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T50" s="5">
         <v>6</v>
@@ -6609,10 +6288,10 @@
         <v>1760.2538800000002</v>
       </c>
       <c r="W50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" ht="15.75">
       <c r="L51">
         <v>22</v>
       </c>
@@ -6624,7 +6303,7 @@
         <v>619.03211999999996</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T51" s="5">
         <v>7</v>
@@ -6637,10 +6316,10 @@
         <v>1796.3324399999999</v>
       </c>
       <c r="W51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" ht="15.75">
       <c r="L52">
         <v>23</v>
       </c>
@@ -6652,7 +6331,7 @@
         <v>683.59375</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T52" s="5">
         <v>8</v>
@@ -6665,10 +6344,10 @@
         <v>1591.2543500000002</v>
       </c>
       <c r="W52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" ht="15.75">
       <c r="L53">
         <v>24</v>
       </c>
@@ -6680,10 +6359,10 @@
         <v>732.96440000000007</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="12:23" ht="15.75">
       <c r="L54">
         <v>25</v>
       </c>
@@ -6695,7 +6374,7 @@
         <v>780.43623000000002</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6705,38 +6384,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="6"/>
       <c r="B2" s="6">
         <v>80</v>
@@ -6758,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>80</v>
@@ -6780,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="6">
         <v>80</v>
@@ -6802,7 +6481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>80</v>
@@ -6824,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>80</v>
@@ -6846,7 +6525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>80</v>
@@ -6868,7 +6547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>80</v>
@@ -6890,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>80</v>
@@ -6918,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="C10" s="7">
         <v>2</v>
       </c>
@@ -6938,24 +6617,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <f>SUM(M9:M10)</f>
@@ -6965,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="D12" s="7">
         <v>345</v>
       </c>
@@ -6973,37 +6652,37 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14">
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13">
         <f>3/277</f>
         <v>1.0830324909747292E-2</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="D14">
         <f>2/345</f>
         <v>5.7971014492753624E-3</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:12">
       <c r="J17">
         <f>5/(345+277)</f>
         <v>8.0385852090032149E-3</v>
